--- a/biology/Médecine/Nanisme_3M/Nanisme_3M.xlsx
+++ b/biology/Médecine/Nanisme_3M/Nanisme_3M.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Décrit pour la première fois en 1975[1], le nanisme 3M est caractérisé par un retard de croissance pré- et post-natal, des anomalies osseuses et un visage caractéristique. Le développement et l'intelligence sont normaux.
+Décrit pour la première fois en 1975, le nanisme 3M est caractérisé par un retard de croissance pré- et post-natal, des anomalies osseuses et un visage caractéristique. Le développement et l'intelligence sont normaux.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La caractéristique la plus évidente de ce syndrome est le retard de croissance intra-utérin. La taille à la naissance est de 40 à 42 centimètres (normale 50). Le périmètre crânien est normal donnant un aspect disproportionné du nouveau-né Le retard de croissance n'est pas rattrapé en post natal donnant une taille adulte en dessous de 5 dérivations standards.
 Chez les filles, il ne semble pas y avoir d'anomalies du fonctionnement des ovaires. Chez le garçon, il existe souvent un hypogonadisme hypergonadotrope avec des testicules de petite taille.</t>
@@ -543,46 +557,119 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le diagnostic est essentiellement clinique. Il est suggéré devant un enfant présentant les signes suivants :
-Clinique
-Retard de croissance important prénatal et postnatal
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic est essentiellement clinique. Il est suggéré devant un enfant présentant les signes suivants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nanisme_3M</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nanisme_3M</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Retard de croissance important prénatal et postnatal
 Caractéristiques faciales
 Intelligence normale
 D'autres signes cliniques comme : cou large et court, déformation du sternum, thorax court, hyperlordose et raccourcissement du cinquième doigt
 Talons proéminents et laxicité articulaire
-Antécédents familiaux de pathologie à caractère récessif
-Radiologique
-Os longs minces avec diaphyse rétrécie et évasement de la métaphyse est la caractéristique radiologique principale.</t>
+Antécédents familiaux de pathologie à caractère récessif</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Nanisme_3M</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nanisme_3M</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Radiologique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Os longs minces avec diaphyse rétrécie et évasement de la métaphyse est la caractéristique radiologique principale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nanisme_3M</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nanisme_3M</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Syndrome de Silver-Russell
 Syndrome de Dubowitz
@@ -592,34 +679,36 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Nanisme_3M</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nanisme_3M</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">CUL7, OBSL1, et CCDC8 sont les trois seuls gènes connus responsables de ce syndrome.
-Le CUL7 intervient dans 75 % des cas[2], le gène CCDC8 dans 15 % des cas et le gène OBSL1 dans 10 % des cas.
+Le CUL7 intervient dans 75 % des cas, le gène CCDC8 dans 15 % des cas et le gène OBSL1 dans 10 % des cas.
 </t>
         </is>
       </c>
